--- a/static/4자료실.xlsx
+++ b/static/4자료실.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="517" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="432" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="1013">
   <si>
     <t>V</t>
   </si>
@@ -1241,6 +1241,36 @@
     <t>M66ig</t>
   </si>
   <si>
+    <t>대401</t>
+  </si>
+  <si>
+    <t>대410.7</t>
+  </si>
+  <si>
+    <t>대417</t>
+  </si>
+  <si>
+    <t>대418.02</t>
+  </si>
+  <si>
+    <t>대425</t>
+  </si>
+  <si>
+    <t>대493.1</t>
+  </si>
+  <si>
+    <t>대495.11</t>
+  </si>
+  <si>
+    <t>대495.111</t>
+  </si>
+  <si>
+    <t>대495.117</t>
+  </si>
+  <si>
+    <t>대495.17</t>
+  </si>
+  <si>
     <t>Al42b</t>
   </si>
   <si>
@@ -1269,6 +1299,42 @@
   </si>
   <si>
     <t>T296j</t>
+  </si>
+  <si>
+    <t>An81c</t>
+  </si>
+  <si>
+    <t>G939g</t>
+  </si>
+  <si>
+    <t>M665g</t>
+  </si>
+  <si>
+    <t>J461d</t>
+  </si>
+  <si>
+    <t>Y98s</t>
+  </si>
+  <si>
+    <t>B777r</t>
+  </si>
+  <si>
+    <t>W95s</t>
+  </si>
+  <si>
+    <t>L74j</t>
+  </si>
+  <si>
+    <t>M11h</t>
+  </si>
+  <si>
+    <t>W1849j</t>
+  </si>
+  <si>
+    <t>Y19y</t>
+  </si>
+  <si>
+    <t>Y839h</t>
   </si>
   <si>
     <t>M831nKg</t>
@@ -3217,8 +3283,8 @@
   </sheetPr>
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q31" activeCellId="0" sqref="Q31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V56" activeCellId="0" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6174,62 +6240,110 @@
       <c r="J55" s="3" t="n">
         <v>608.751</v>
       </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
+      <c r="K55" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="T55" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="U55" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="V55" s="10" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
@@ -6346,67 +6460,67 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="U62" s="0" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,67 +6590,67 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="T64" s="0" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="U64" s="0" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6606,49 +6720,49 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="P66" s="0" t="s">
         <v>288</v>
@@ -6660,13 +6774,13 @@
         <v>86</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="U66" s="0" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6736,67 +6850,67 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="T68" s="0" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="U68" s="0" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6857,56 +6971,56 @@
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6967,56 +7081,56 @@
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7"/>
       <c r="B72" s="3" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="Q72" s="0" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="S72" s="0" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="T72" s="0" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7089,70 +7203,70 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="N74" s="3" t="s">
         <v>166</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7225,70 +7339,70 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7361,70 +7475,70 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>76</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>587</v>
+        <v>609</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7497,70 +7611,70 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7633,70 +7747,70 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,70 +7883,70 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7905,70 +8019,70 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8041,70 +8155,70 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>179</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8177,70 +8291,70 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8313,70 +8427,70 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>288</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="V92" s="11" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8440,57 +8554,57 @@
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
@@ -8556,57 +8670,57 @@
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="R96" s="3" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
@@ -8681,70 +8795,70 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>788</v>
+        <v>810</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>790</v>
+        <v>812</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>793</v>
+        <v>815</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>797</v>
+        <v>819</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>800</v>
+        <v>822</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8817,70 +8931,70 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>810</v>
+        <v>832</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>811</v>
+        <v>833</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>812</v>
+        <v>834</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>813</v>
+        <v>835</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>814</v>
+        <v>836</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>815</v>
+        <v>837</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>816</v>
+        <v>838</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>817</v>
+        <v>839</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>819</v>
+        <v>841</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8953,70 +9067,70 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>822</v>
+        <v>844</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>823</v>
+        <v>845</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>825</v>
+        <v>847</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>827</v>
+        <v>849</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>828</v>
+        <v>850</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>829</v>
+        <v>851</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>831</v>
+        <v>853</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>833</v>
+        <v>855</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>834</v>
+        <v>856</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>835</v>
+        <v>857</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>836</v>
+        <v>858</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>837</v>
+        <v>859</v>
       </c>
       <c r="R102" s="3" t="s">
-        <v>838</v>
+        <v>860</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="T102" s="3" t="s">
-        <v>840</v>
+        <v>862</v>
       </c>
       <c r="U102" s="3" t="s">
-        <v>841</v>
+        <v>863</v>
       </c>
       <c r="V102" s="3" t="s">
-        <v>842</v>
+        <v>864</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9089,70 +9203,70 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>845</v>
+        <v>867</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>847</v>
+        <v>869</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>848</v>
+        <v>870</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>850</v>
+        <v>872</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>852</v>
+        <v>874</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>857</v>
+        <v>879</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>858</v>
+        <v>880</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>859</v>
+        <v>881</v>
       </c>
       <c r="R104" s="3" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>860</v>
+        <v>882</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>861</v>
+        <v>883</v>
       </c>
       <c r="U104" s="3" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>863</v>
+        <v>885</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9225,70 +9339,70 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>864</v>
+        <v>886</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>865</v>
+        <v>887</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>866</v>
+        <v>888</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>868</v>
+        <v>890</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>870</v>
+        <v>892</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>871</v>
+        <v>893</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>872</v>
+        <v>894</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>873</v>
+        <v>895</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>874</v>
+        <v>896</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>879</v>
+        <v>901</v>
       </c>
       <c r="R106" s="3" t="s">
-        <v>880</v>
+        <v>902</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>882</v>
+        <v>904</v>
       </c>
       <c r="U106" s="3" t="s">
-        <v>883</v>
+        <v>905</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9361,70 +9475,70 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>885</v>
+        <v>907</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>887</v>
+        <v>909</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>889</v>
+        <v>911</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>891</v>
+        <v>913</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>892</v>
+        <v>914</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>893</v>
+        <v>915</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>894</v>
+        <v>916</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>895</v>
+        <v>917</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>896</v>
+        <v>918</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>897</v>
+        <v>919</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>899</v>
+        <v>921</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>900</v>
+        <v>922</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>901</v>
+        <v>923</v>
       </c>
       <c r="R108" s="3" t="s">
-        <v>902</v>
+        <v>924</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>903</v>
+        <v>925</v>
       </c>
       <c r="T108" s="3" t="s">
-        <v>904</v>
+        <v>926</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>905</v>
+        <v>927</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>906</v>
+        <v>928</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9497,70 +9611,70 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>907</v>
+        <v>929</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>908</v>
+        <v>930</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>909</v>
+        <v>931</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>910</v>
+        <v>932</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>911</v>
+        <v>933</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>912</v>
+        <v>934</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>913</v>
+        <v>935</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>914</v>
+        <v>936</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>915</v>
+        <v>937</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>916</v>
+        <v>938</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>918</v>
+        <v>940</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>919</v>
+        <v>941</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>920</v>
+        <v>942</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>922</v>
+        <v>944</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>923</v>
+        <v>945</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>924</v>
+        <v>946</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="T110" s="3" t="s">
-        <v>926</v>
+        <v>948</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>927</v>
+        <v>949</v>
       </c>
       <c r="V110" s="3" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9633,70 +9747,70 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>929</v>
+        <v>951</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>835</v>
+        <v>857</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>930</v>
+        <v>952</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>931</v>
+        <v>953</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>933</v>
+        <v>955</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>934</v>
+        <v>956</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>936</v>
+        <v>958</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>937</v>
+        <v>959</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>938</v>
+        <v>960</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>939</v>
+        <v>961</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>940</v>
+        <v>962</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>941</v>
+        <v>963</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>942</v>
+        <v>964</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>943</v>
+        <v>965</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>944</v>
+        <v>966</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>948</v>
+        <v>970</v>
       </c>
       <c r="V112" s="3" t="s">
-        <v>949</v>
+        <v>971</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9769,70 +9883,70 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>951</v>
+        <v>973</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>953</v>
+        <v>975</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>956</v>
+        <v>978</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>960</v>
+        <v>982</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
       <c r="M114" s="3" t="s">
         <v>343</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>962</v>
+        <v>984</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>963</v>
+        <v>985</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>964</v>
+        <v>986</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>965</v>
+        <v>987</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>966</v>
+        <v>988</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>967</v>
+        <v>989</v>
       </c>
       <c r="T114" s="3" t="s">
         <v>114</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>968</v>
+        <v>990</v>
       </c>
       <c r="V114" s="3" t="s">
-        <v>969</v>
+        <v>991</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9905,70 +10019,70 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>970</v>
+        <v>992</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>971</v>
+        <v>993</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>972</v>
+        <v>994</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>973</v>
+        <v>995</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>974</v>
+        <v>996</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>975</v>
+        <v>997</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>976</v>
+        <v>998</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>977</v>
+        <v>999</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>978</v>
+        <v>1000</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>979</v>
+        <v>1001</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>980</v>
+        <v>1002</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>981</v>
+        <v>1003</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>982</v>
+        <v>1004</v>
       </c>
       <c r="O116" s="3" t="s">
-        <v>983</v>
+        <v>1005</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>984</v>
+        <v>1006</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>985</v>
+        <v>1007</v>
       </c>
       <c r="R116" s="3" t="s">
-        <v>986</v>
+        <v>1008</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>987</v>
+        <v>1009</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>988</v>
+        <v>1010</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>989</v>
+        <v>1011</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>990</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>

--- a/static/4자료실.xlsx
+++ b/static/4자료실.xlsx
@@ -3888,9 +3888,6 @@
     <t>L579s</t>
   </si>
   <si>
-    <t>대598.097</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">대</t>
     </r>
@@ -3905,10 +3902,13 @@
     </r>
   </si>
   <si>
+    <t>대598.097</t>
+  </si>
+  <si>
+    <t>C453g</t>
+  </si>
+  <si>
     <t>Au29b</t>
-  </si>
-  <si>
-    <t>C453g</t>
   </si>
   <si>
     <t>대601</t>
@@ -3971,7 +3971,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3980,20 +3980,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD7E4BD"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -4031,7 +4025,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4080,11 +4074,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4171,8 +4161,8 @@
   </sheetPr>
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S97" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z117" activeCellId="0" sqref="Z117"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S85" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z123" activeCellId="0" sqref="Z123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4200,7 +4190,7 @@
     <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="8.6137339055794"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K1" s="0" t="n">
         <v>401</v>
       </c>
@@ -4246,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K2" s="0" t="s">
         <v>2</v>
       </c>
@@ -4292,7 +4282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K3" s="0" t="n">
         <v>401</v>
       </c>
@@ -4334,7 +4324,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="0" t="s">
         <v>16</v>
       </c>
@@ -4376,7 +4366,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="n">
         <v>616.855</v>
@@ -4435,7 +4425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>30</v>
@@ -4494,7 +4484,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="n">
         <v>616.60951</v>
@@ -4549,7 +4539,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>48</v>
@@ -4604,7 +4594,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4672,7 +4662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4740,7 +4730,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4802,7 +4792,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -4864,7 +4854,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -4932,7 +4922,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -5000,7 +4990,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5046,7 +5036,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -5092,7 +5082,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -5138,7 +5128,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5184,7 +5174,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -5222,7 +5212,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -5260,7 +5250,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -5322,7 +5312,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5384,7 +5374,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5438,7 +5428,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -5492,7 +5482,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -5562,7 +5552,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -5632,7 +5622,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -5694,7 +5684,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -5756,7 +5746,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -5826,7 +5816,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -5896,7 +5886,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -5958,7 +5948,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -6020,7 +6010,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -6086,7 +6076,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -6152,7 +6142,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -6214,7 +6204,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -6276,7 +6266,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -6332,7 +6322,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -6388,7 +6378,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -6440,7 +6430,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -6492,7 +6482,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="n">
         <v>613.2</v>
@@ -6566,7 +6556,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>327</v>
@@ -6640,7 +6630,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="n">
         <v>612.78</v>
@@ -6710,7 +6700,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>349</v>
@@ -6780,7 +6770,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="n">
         <v>612.76</v>
@@ -6837,7 +6827,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>370</v>
@@ -6894,7 +6884,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="n">
         <v>612.015</v>
@@ -6953,7 +6943,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>386</v>
@@ -7012,7 +7002,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
         <v>612.01442</v>
       </c>
@@ -7088,7 +7078,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>404</v>
       </c>
@@ -7164,7 +7154,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
         <v>610.724</v>
       </c>
@@ -7236,7 +7226,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>428</v>
       </c>
@@ -7308,7 +7298,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
         <v>610.696</v>
       </c>
@@ -7384,7 +7374,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>449</v>
       </c>
@@ -7460,7 +7450,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
         <v>600</v>
       </c>
@@ -7491,40 +7481,40 @@
       <c r="J55" s="4" t="n">
         <v>608.751</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="L55" s="12" t="s">
+      <c r="L55" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="M55" s="12" t="s">
+      <c r="M55" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="N55" s="12" t="s">
+      <c r="N55" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="O55" s="12" t="s">
+      <c r="O55" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="P55" s="12" t="s">
+      <c r="P55" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="Q55" s="12" t="s">
+      <c r="Q55" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="R55" s="12" t="s">
+      <c r="R55" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="S55" s="12" t="s">
+      <c r="S55" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="T55" s="12" t="s">
+      <c r="T55" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="U55" s="12" t="s">
+      <c r="U55" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="V55" s="12" t="s">
+      <c r="V55" s="2" t="s">
         <v>481</v>
       </c>
       <c r="W55" s="1"/>
@@ -7532,7 +7522,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>482</v>
       </c>
@@ -7563,40 +7553,40 @@
       <c r="J56" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K56" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="L56" s="13" t="s">
+      <c r="L56" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="M56" s="13" t="s">
+      <c r="M56" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="N56" s="13" t="s">
+      <c r="N56" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="O56" s="13" t="s">
+      <c r="O56" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="P56" s="13" t="s">
+      <c r="P56" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="Q56" s="13" t="s">
+      <c r="Q56" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="R56" s="13" t="s">
+      <c r="R56" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="S56" s="13" t="s">
+      <c r="S56" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="T56" s="13" t="s">
+      <c r="T56" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="U56" s="13" t="s">
+      <c r="U56" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="V56" s="13" t="s">
+      <c r="V56" s="12" t="s">
         <v>503</v>
       </c>
       <c r="W56" s="1"/>
@@ -7604,7 +7594,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -7624,7 +7614,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -7644,7 +7634,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -7660,7 +7650,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -7676,7 +7666,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
         <v>599.9</v>
       </c>
@@ -7749,7 +7739,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>507</v>
       </c>
@@ -7822,7 +7812,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
         <v>591.5</v>
       </c>
@@ -7891,7 +7881,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>530</v>
       </c>
@@ -7960,7 +7950,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
         <v>591.38</v>
       </c>
@@ -8033,7 +8023,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>551</v>
       </c>
@@ -8106,7 +8096,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
         <v>581.13342</v>
       </c>
@@ -8175,7 +8165,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>571</v>
       </c>
@@ -8244,7 +8234,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9"/>
       <c r="B69" s="4" t="n">
         <v>581.1</v>
@@ -8307,7 +8297,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9"/>
       <c r="B70" s="4" t="s">
         <v>594</v>
@@ -8370,7 +8360,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9"/>
       <c r="B71" s="4" t="n">
         <v>576.5</v>
@@ -8429,7 +8419,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9"/>
       <c r="B72" s="4" t="s">
         <v>612</v>
@@ -8488,7 +8478,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="n">
         <v>576.16</v>
       </c>
@@ -8564,7 +8554,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>630</v>
       </c>
@@ -8640,7 +8630,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="n">
         <v>574.874</v>
       </c>
@@ -8712,7 +8702,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>653</v>
       </c>
@@ -8784,7 +8774,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="n">
         <v>574.873282</v>
       </c>
@@ -8860,7 +8850,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>677</v>
       </c>
@@ -8936,7 +8926,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="n">
         <v>574.19283</v>
       </c>
@@ -9008,7 +8998,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>700</v>
       </c>
@@ -9080,7 +9070,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
         <v>574.1925</v>
       </c>
@@ -9156,7 +9146,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>724</v>
       </c>
@@ -9232,7 +9222,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
         <v>573.8</v>
       </c>
@@ -9304,7 +9294,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>748</v>
       </c>
@@ -9376,7 +9366,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
         <v>573.2</v>
       </c>
@@ -9452,7 +9442,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>772</v>
       </c>
@@ -9528,7 +9518,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
         <v>553</v>
       </c>
@@ -9600,7 +9590,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>796</v>
       </c>
@@ -9672,7 +9662,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
         <v>552.5</v>
       </c>
@@ -9748,7 +9738,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>818</v>
       </c>
@@ -9824,7 +9814,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="n">
         <v>551.48</v>
       </c>
@@ -9896,7 +9886,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>842</v>
       </c>
@@ -9960,7 +9950,7 @@
       <c r="U92" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="V92" s="14" t="s">
+      <c r="V92" s="13" t="s">
         <v>862</v>
       </c>
       <c r="W92" s="1"/>
@@ -10034,7 +10024,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>865</v>
@@ -10100,7 +10090,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="n">
         <v>551</v>
@@ -10162,7 +10152,7 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>883</v>
@@ -10224,7 +10214,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="n">
         <v>551</v>
       </c>
@@ -10300,7 +10290,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
         <v>902</v>
       </c>
@@ -10376,7 +10366,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="n">
         <v>547.7045</v>
       </c>
@@ -10448,7 +10438,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>924</v>
       </c>
@@ -10520,7 +10510,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="n">
         <v>547.7</v>
       </c>
@@ -10596,7 +10586,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
         <v>947</v>
       </c>
@@ -10672,7 +10662,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
         <v>547</v>
       </c>
@@ -10744,7 +10734,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
         <v>970</v>
       </c>
@@ -10816,7 +10806,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="n">
         <v>547</v>
       </c>
@@ -10892,7 +10882,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>703</v>
       </c>
@@ -10968,7 +10958,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="n">
         <v>541.395</v>
       </c>
@@ -11040,7 +11030,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>1016</v>
       </c>
@@ -11112,7 +11102,7 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="n">
         <v>541.395</v>
       </c>
@@ -11188,7 +11178,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>1040</v>
       </c>
@@ -11264,7 +11254,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="n">
         <v>540.76</v>
       </c>
@@ -11336,7 +11326,7 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>1064</v>
       </c>
@@ -11408,7 +11398,7 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="n">
         <v>540.112</v>
       </c>
@@ -11484,7 +11474,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>1087</v>
       </c>
@@ -11560,7 +11550,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="n">
         <v>538.6</v>
       </c>
@@ -11632,7 +11622,7 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>1108</v>
       </c>
@@ -11702,27 +11692,27 @@
       <c r="W116" s="1"/>
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
-      <c r="Z116" s="1" t="s">
-        <v>1129</v>
-      </c>
+      <c r="Z116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W117" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
-      <c r="Z117" s="3" t="s">
+      <c r="Z117" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W118" s="3" t="s">
         <v>1131</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W118" s="3" t="s">
-        <v>1132</v>
       </c>
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
-      <c r="Z118" s="5"/>
+      <c r="Z118" s="3" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W119" s="5"/>
